--- a/analysis_ALTA_Report.xlsx
+++ b/analysis_ALTA_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,3132 +463,1836 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>Commitment Date is not specified in the provided document</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Positions 124-126</t>
+          <t>Schedule A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Add the Commitment Date to Schedule A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>Proposed Amount of Insurance is not specified in the provided document</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Positions 484-488</t>
+          <t>Schedule A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Add the Proposed Amount of Insurance to Schedule A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>There are two different presidents mentioned (James Hemenway and Michael J. Nolan) which may indicate an inconsistency</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Positions 796-806</t>
+          <t>Commitment to Issue Policy section</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Verify the correct president's name and title</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The policy number format seems to be correct, but without more context, it's difficult to determine its validity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Positions 1539-1555</t>
+          <t>Commitment Number: KCC230811</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Check spelling/grammar</t>
+          <t>Verify the policy number with the company's records</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Three successive sentences begin with the same word. Consider rewording the sentence or use a thesaurus to find a synonym.</t>
+          <t>No coverage amounts are specified in the provided document to determine if they are realistic</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Positions 1790-1793</t>
+          <t>Schedule A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Check spelling/grammar</t>
+          <t>Add the coverage amounts to Schedule A and review for reasonableness</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Put a space after the comma, but not before the comma.</t>
+          <t>The term 'Proprietary to the Company' might be considered incorrect or unclear in this context</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Positions 2082-2084</t>
+          <t>Notice section</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>Review the terminology used in the Notice section for clarity and accuracy</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document appears to be well-formatted and free of spelling and grammar errors</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Positions 2085-2093</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Florida; a Florida</t>
+          <t>No suggestions needed</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consider removing “of” to be more concise</t>
+          <t>The proposed amount of insurance is $5,000.00, which seems unusually low for a property with a legal description that includes multiple sections and tracts.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Positions 2483-2493</t>
+          <t>SCHEDULE A, Item 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>all the</t>
+          <t>Verify the proposed amount of insurance with the parties involved and consider increasing the amount to a more realistic value.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document does not include the 'Commitment to Issue Policy' or 'Schedule B, Part II-Exceptions', which are required for a valid commitment.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Positions 2753-2761</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hemingway</t>
+          <t>Ensure that all required sections, including the 'Commitment to Issue Policy' and 'Schedule B, Part II-Exceptions', are included in the commitment.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name inconsistencies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Put a space after the comma, but not before the comma.</t>
+          <t>The email address for the Escrow Officer is listed as 'cade.kauffman@fnf.com', but the name is spelled 'Cade Kaufman' in the 'ISSUING OFFICE' section.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Positions 2761-2763</t>
+          <t>ISSUING OFFICE and Escrow Officer sections</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">, </t>
+          <t>Verify the correct spelling of the Escrow Officer's name and ensure consistency throughout the document.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Date inconsistencies</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The 'Commitment Date' is listed as 'March 28, 2023', but the document was 'Printed' on '04.13.23'.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Positions 2795-2807</t>
+          <t>SCHEDULE A, Item 1 and footer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Agent Michael</t>
+          <t>Verify that the 'Commitment Date' and 'Printed' date are consistent and reflect the correct dates.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>Typo in the word 'encumbrance' (missing in the document but mentioned in the context) and 'e-records' (should be 'electronic records')</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Positions 2845-2852</t>
+          <t>Section 8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tempura</t>
+          <t>Correct the typos and consider rephrasing for clarity</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>No specific details provided about the Real Estate Transfer Statement - Form 521, such as where to obtain it or how to fill it out</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Positions 2988-2990</t>
+          <t>Section 7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Provide more information about the Real Estate Transfer Statement - Form 521</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The document mentions '2021 ALTA Commitment for Title Insurance' but has a print date of '04.13.23'</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Positions 3348-3352</t>
+          <t>Header</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Ensure that all dates in the document are consistent and up-to-date</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>No policy number is explicitly mentioned, but 'COMMITMENT NO. KCC230811' is provided</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Positions 3660-3670</t>
+          <t>Header</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Verify that the commitment number is valid and corresponds to the correct policy</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>No coverage amounts are mentioned in the provided document</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Positions 1733-1735</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Include coverage amounts in the document or provide a separate document with this information</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The term 'e-records' is used instead of 'electronic records'</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Positions 2093-2097</t>
+          <t>Section 8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Use the correct terminology throughout the document</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The name of the prospective purchaser is not provided in the application for title insurance.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Positions 2405-2415</t>
+          <t>Section 14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>The name of the prospective purchaser should be ascertained and added to the application.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The document does not specify the date of the proposed policy, only the printing date (04.13.23) is mentioned.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Positions 2725-2729</t>
+          <t>Page 6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2009,</t>
+          <t>The date of the proposed policy should be specified and added to the document.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The assumed amount of the requested Policy is $5000.00, which may not be sufficient for the full value of the estate or interest being insured.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Positions 2756-2760</t>
+          <t>Section 13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2009,</t>
+          <t>The actual value of the estate or interest to be insured should be disclosed and the proposed policy amount should be adjusted accordingly.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The policy number is not explicitly mentioned in the provided document snippet, only the Commitment No. (KCC230811) is mentioned.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Positions 2909-2911</t>
+          <t>Page 6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>The policy number should be explicitly mentioned in the document.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The document does not provide information about the loan amount or the value of the property as collateral.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Positions 3269-3273</t>
+          <t>Section 12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>The loan amount or the value of the property as collateral should be specified and added to the document.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The term 'Discriminatory Covenant' is used, but it is not explicitly defined in the provided document snippet.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Positions 3581-3591</t>
+          <t>SCHEDULE B, PART II - Exceptions</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>The term 'Discriminatory Covenant' should be explicitly defined in the document or a reference to the definition should be provided.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Grammar</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Consider removing “of” to be more concise</t>
+          <t>Typo in the word 'running', it is misspelled as 'runing'</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Positions 3727-3737</t>
+          <t>Exception 11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>All the</t>
+          <t>Correct the spelling to 'running'</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name inconsistency</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>This sentence does not start with an uppercase letter.</t>
+          <t>The name 'Colin and Caryl Halfwassen' is mentioned as individuals and as Trustees, but the format of the names is not consistent</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Positions 0-7</t>
+          <t>Exception 8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Writing</t>
+          <t>Use a consistent format for the names throughout the document</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Date inconsistency</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The date 'January 30, 2009' is mentioned as the date of the trust, but the recording date is 'February 18, 2009', it is not clear if these dates are correct</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Positions 2912-2914</t>
+          <t>Exception 8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Verify the dates and ensure they are correct and consistent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy number</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The policy number is not explicitly mentioned in the document, only the Commitment number 'KCC230811' is provided</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Positions 3272-3276</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Include the policy number in the document</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amount</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The coverage amount is not explicitly mentioned in the document, but the assessed values and taxes are provided, which may be used to estimate the coverage amount</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Positions 3584-3594</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Include the coverage amount in the document</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The term 'repudiated' is used, but it is not clear if it is the correct term in this context</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Positions 3875-3883</t>
+          <t>First paragraph</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cancer; Banner; Dancer; Dancers; Banker; Backers; Bankers; Banners; Cancers; Ranchers; Backer; Banter; Rancher; Bencher; Lancers; Fancier; Fanciers; Lancer; Banger; Bangers; Banister; Banisters; Baser; Benchers; Banters; Reinsert; Banaler; Bander; Banders; Bandier; Basser</t>
+          <t>Use the correct terminology, such as 'revoked' or 'cancelled'</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>This sentence does not start with an uppercase letter.</t>
+          <t>Typo in the word 'running', misspelled as 'runing' in the sentence 'Easement for runing of a power panel to a stockwell...'</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Positions 0-2</t>
+          <t>Line 11, Page 8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>An</t>
+          <t>Correct the spelling to 'running'</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document is missing Schedule A, which is referenced throughout the Commitment</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Positions 101-109</t>
+          <t>Multiple references throughout the document</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cancer; Banner; Dancer; Dancers; Banker; Backers; Bankers; Banners; Cancers; Ranchers; Backer; Banter; Rancher; Bencher; Lancers; Fancier; Fanciers; Lancer; Banger; Bangers; Banister; Banisters; Baser; Benchers; Banters; Reinsert; Banaler; Bander; Banders; Bandier; Basser</t>
+          <t>Ensure Schedule A is included and properly referenced</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The document mentions two different dates for the recording of the easement: April 7, 1981, and January 9, 1987. While these dates are likely correct for different events, they should be reviewed for consistency</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Positions 2731-2733</t>
+          <t>Lines 1 and 11, Page 8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Verify the accuracy of the dates and ensure consistency throughout the document</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>No policy numbers are explicitly mentioned in the provided document, but the Commitment Number 'KCC230811' is given. It is unclear if this is a valid policy number or just a commitment number</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Positions 3091-3095</t>
+          <t>Top of Page 8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Verify the validity of the Commitment Number and ensure it is properly referenced as a policy number if applicable</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>No coverage amounts are explicitly mentioned in the provided document. However, the Proposed Amount of Insurance is defined in the Commitment Conditions, but no specific amount is given</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Positions 3403-3413</t>
+          <t>Commitment Conditions, Section 1(f)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Ensure the Proposed Amount of Insurance is properly specified in Schedule A or other relevant sections</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Consider removing “of” to be more concise</t>
+          <t>The term 'Discriminatory Covenant' is defined in the Commitment Conditions, but its relevance to the document is unclear. It should be reviewed to ensure it is properly applied</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Positions 617-627</t>
+          <t>Commitment Conditions, Section 1(a)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>all the</t>
+          <t>Verify the accuracy and relevance of the defined terms, including 'Discriminatory Covenant', to the specific policy and property</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>Lack of specific details about the Land, such as its location and description, in the provided document excerpt.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Positions 1439-1445</t>
+          <t>Item 3 of Schedule A</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>Include the required details about the Land in the document to ensure clarity and completeness.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The document refers to '2021 ALTA Commitment for Title Insurance' but is printed on '04.13.23', which may indicate a discrepancy in the document's version or update.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Positions 2440-2442</t>
+          <t>Page 9, bottom section</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Verify that the document version and print date are consistent and up-to-date to avoid potential issues.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The policy number 'KCC230811' seems to be in an unconventional format and may require verification for accuracy.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Positions 2800-2804</t>
+          <t>Top section of the document, 'COMMITMENT NO. KCC230811'</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Confirm that the policy number 'KCC230811' is valid and correctly formatted according to the company's standards.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KCC230811</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The term 'Transaction Identification Data' is not explicitly defined within the provided document excerpt, which may cause confusion.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Positions 3112-3122</t>
+          <t>Commitment Condition 5.e.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Include a clear definition or explanation of 'Transaction Identification Data' in the document to ensure understanding and avoid ambiguity.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document does not contain the proposed insured's name, policy number, or coverage amount.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Positions 3397-3407</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Half-assed</t>
+          <t>Add the required information to ensure the document is complete and accurate.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document contains two dates (5/11/2017) that appear to be the original effective date and the current version date, but it is unclear if these dates are correct or up-to-date.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Positions 3452-3462</t>
+          <t>Page 10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Half-assed</t>
+          <t>Verify the dates and ensure they are accurate and consistent throughout the document.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document does not contain a valid policy number.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Positions 3489-3499</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Half-assed</t>
+          <t>Add a valid policy number to the document to ensure it is properly identified.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The document does not contain a coverage amount, but it is essential to ensure that any coverage amount included is realistic and consistent with the policy terms.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Positions 3535-3539</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2009,</t>
+          <t>Add a realistic coverage amount to the document, if applicable, and ensure it is consistent with the policy terms.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The document uses the term 'Proposed Insured' throughout, but it is unclear if this is the correct term or if it should be replaced with a more specific term, such as 'Named Insured'.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Positions 3566-3570</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2009,</t>
+          <t>Verify the terminology used in the document and ensure it is accurate and consistent with industry standards.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The document contains a few minor punctuation errors, such as missing articles or incorrect comma usage.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Positions 3591-3593</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Proofread the document to ensure it is free of spelling and grammar errors.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>Policy number is not present in the document</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Positions 3723-3727</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Add the policy number to the document</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>Date format is inconsistent (04.13.23 and January 1, 2023)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Positions 3751-3755</t>
+          <t>Page 11 and Privacy Notice section</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Use a consistent date format throughout the document</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The term 'Browsing Information' is used, but it is not clearly defined</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Positions 3776-3778</t>
+          <t>Collection of Browsing Information section</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Define 'Browsing Information' or use a more standard term</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>Minor punctuation errors (e.g., missing articles, incorrect comma usage)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Positions 3910-3914</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Proofread the document for grammar and punctuation errors</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>No coverage amounts or details are provided</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Positions 3937-3941</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Add coverage details, including amounts and terms</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>KS-FT-FKCM-03000.250310</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>No policy number is present to validate</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Positions 3977-3979</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Add a valid policy number to the document</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid Document Type</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document appears to be a privacy policy statement, not an insurance title document.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Positions 3997-4003</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>running; ruling; tuning; pruning; ruining; ruing; rueing</t>
+          <t>Verify the document type and ensure it is an insurance title document.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing Information</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document does not contain any information related to insurance title, policy numbers, or coverage amounts.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Positions 4026-4035</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Stockwell; stock well; Rockwell; Stowell</t>
+          <t>Obtain the correct insurance title document and verify the information is complete and accurate.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect Terminology</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>This sentence does not start with an uppercase letter.</t>
+          <t>The document uses terminology unrelated to insurance title, such as 'cookies', 'web beacons', and 'browsing activity'.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Positions 0-4</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Line</t>
+          <t>Use the correct terminology related to insurance title and verify the document is applicable to the intended purpose.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/Date Inconsistencies</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The document contains a printed date (04.13.23) but does not specify the policy effective date or expiration date.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Positions 105-109</t>
+          <t>Page 12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Verify the document contains the correct dates and ensure they are consistent with the policy information.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic Coverage</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>The document does not mention any coverage amounts or policy limits.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Positions 132-136</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1981,</t>
+          <t>Obtain the correct insurance title document and verify the coverage amounts and policy limits are realistic and accurate.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>1. Spelling/grammar</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>Missing article ('a' or 'an') before 'Privacy Notice' in the sentence 'For additional information about your California privacy rights, please visit the California Privacy link on our website'</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Positions 172-174</t>
+          <t>Page 1, Section 'For California Residents'</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Add the article 'the' before 'California Privacy' to make the sentence grammatically correct.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>2. Missing information</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>Missing contact information for the company, such as a mailing address or fax number</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Positions 192-198</t>
+          <t>End of the document</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>running; ruling; tuning; pruning; ruining; ruing; rueing</t>
+          <t>Add a section with the company's contact information, including a mailing address, phone number, fax number, and email address.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>3. Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>Inconsistent date format, using both '04.13.23' and 'KS-FT-FKCM -03000.250310 -KCC230811' to represent dates</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Positions 221-230</t>
+          <t>Footer of the document</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Stockwell; stock well; Rockwell; Stowell</t>
+          <t>Use a consistent date format throughout the document, such as 'MM/DD/YYYY'.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>6. Incorrect terminology</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
+          <t>Using the term 'Personal Information or Browsing Information' without defining what it means in the context of the document</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Positions 327-331</t>
+          <t>Throughout the document</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1987,</t>
+          <t>Define the term 'Personal Information or Browsing Information' in a separate section or at the beginning of the document to provide clarity.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>1. Spelling/grammar</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>Typographical error: 'aginquiries@ag.state.nv.us' should be 'ag.inquiries@ag.state.nv.us' (missing dot)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Positions 365-367</t>
+          <t>Section 'For Nevada Residents'</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Correct the email address to 'ag.inquiries@ag.state.nv.us'.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>2. Missing information</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>Missing information about the company's data retention policy</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Positions 461-464</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>IES; ais; is; its; yes; air; lies; aid; aims; dies; ties; airs; aids; IEC; INS; IRS; pies; IAS; ICS; IDs; ILS; IPS; Ives; IBS; IEA; IED; IEP; IHS; IVs; IQs; aim; ices; IEE; Ines; ifs; ires; vies; ail; ails; ides; AES; BES; Bes; CES; DES; Des; ES; Es; FES; GES; HES; I&amp;S; ICEs; IDES; IDEs; IDS; IE; IEF; IEG; IEM; IEPs; IERS; IESN; IFS; IGS; IIS; IMS; IMs; INES; IOS; IPs; IS; ISS; ITES; ITS; Ier; Inès; Inés; Is; KES; LES; Les; MES; PES; RES; SES; TES; UES; VES; ai; ait; aits; fies; hies; iOS; ids; pes; res; in; was; I; as; his; has; he; it; we; be; get; her; me; new; if; set; us; use; best; died; does; few; led; less; men; see; times; west; West; gas; gives; idea; let; lines; lives; miles; news; red; rest; sea; ten; uses; view; yet; Best; I'd; Los; bus; die; ex; eyes; gets; goes; hey; hits; ice; ideas; items; key; leg; ones; rise; sees; sets; sides; sites; test; tied; tries; views; web; wins; AIDS; EU; IBM; Jews; Lee; ages; bed; diet; fed; fee; fees; files; item; jet; legs; lie; met; mines; net; sits; tea; tie; vs; wet; Ben; CDs; I'm; IRA; Mrs; ads; beds; bias; bits; desk; fires; flies; ill; ink; ion; ions; keys; kids; kiss; lens; likes; miss; neo; nest; pen; per; pet; pipes; rides; rises; seas; sizes; tens; tier; tiles; ups; wines; wise; wives; Aires; CSS; Del; GPS; ICT; ID; IDF; IEEE; IOC; IQ; Kiev; LED; Miles; NHS; PCs; Rev; SAS; Ted; Web; Wei; aide; aisle; axes; bee; bees; bet; bids; bikes; cites; cues; den; fines; fins; fits; hides; id; inn; jets; kits; las; lbs; lets; lieu; lips; mesh; mess; mixes; nets; oils; owes; pets; pie; pier; piers; pigs; pins; pits; ref; ribs; rites; sins; spies; tips; tires; toes; vines; wires; ACS; BBS; BIOS; Bee; CNS; DEC; DNS; Dec; Dee; EF; EPs; ESA; ESP; FRS; Feb; Giles; Gus; IAEA; IBF; ICU; IIT; IMF; IPA; IPO; ISP; ITF; ITU; Jew; LEDs; LPs; Mel; NEC; OEM; PET; Pier; Pius; RMS; RSS; RTS; Rex; Rey; SBS; SDS; SMS; SOS; Viet; Wise; Zen; Zeus; aces; aides; apes; beg; begs; bets; bites; cries; diets; dives; dues; dyes; eds; fief; fixes; foes; gel; gem; gems; hers; hips; hires; icy; inks; ire; iris; kites; lest; lied; ores; pas; peas; pens; peso; pest; piles; pines; rigs; sec; skies; tides; tiers; vest; vie; wed; yen; AEC; AEG; APS; Ames; Ares; Bel; Bess; CCS; CEA; CFS; CIE; CTS; CVS; DMS; DSS; DTS; EEA; EEC; ESC; ESL; FBS; FCS; Geo; Hess; Hines; IAU; ICL; ICP; IFA; IFC; IG; IMG; IMO; IPC; IRL; ITC; ITN; ITT; Iris; Isis; Iwo; Jen; Jens; Jess; KBS; Kew; Kiel; Lea; Len; Lev; Lew; MCs; MIPS; MTS; MeV; Meg; NEA; NPS; Niles; Nils; OAS; OCS; PDS; PRS; RCS; RDS; REM; Rees; SNES; Sims; TCS; TFS; TLS; TVs; TeX; Tess; UE; UPS; VMS; WS; Wien; Yves; bins; dens; dew; digs; dikes; dips; dries; eel; eels; fen; fess; fest; fiefs; figs; fives; fries; gen; gigs; hen; hens; hex; hikes; hives; hues; iced; ills; inns; ivy; lien; med; mins; mites; ms; nee; ops; pea; peg; pegs; pep; pews; reds; rep; rims; rips; sixes; teas; tee; vet; vices; vied; webs; wee; wigs; wits; woes; AEF; AGS; AHS; Aries; BDS; BMS; Bea; CEP; CGS; CLS; CWS; DDS; Desi; Dias; ESB; ESD; ESO; ESR; ESS; Esq; GED; GLS; HFS; HHS; HSS; IAA; IAC; IAP; ICJ; ICM; ICR; ICSE; IDC; IFL; IFP; IFR; IFRS; IGA; IH; IMA; IMC; IMT; IMU; IOM; IPN; IPP; IPR; ISSN; IVB; JCS; Jed; LCS; MBS; MDS; MMS; NBS; NEP; NFS; NLS; Niels; OE; PMS; PNS; PSS; QED; SCS; SIDS; SLS; SRS; TSS; VIPs; Vries; airy; ales; byes; deg; eh; esp; ewes; fens; firs; gels; hem; hiss; ibis; imp; isles; jest; jigs; keg; kegs; lids; liens; limes; mesa; ness; nines; noes; odes; pew; pied; pikes; pips; pts; pus; rec; rem; reps; ret; sew; sires; tees; tics; vets; vibes; wipes; zest; BRS; Biel; CNES; DLS; Debs; ERS; ESE; Eu; GDS; GEF; GMs; GRS; Hiss; Hus; IAB; IBP; ICN; ICO; ICQ; IDB; IDG; IDL; IMSI; IPI; IPOs; IRAs; ITE; IUD; Ina; Inez; Iva; JMS; KSS; Kev; LFS; LRS; LTS; Lem; MNS; Oise; PEO; PVS; RVs; VCS; VEB; abs; beys; bier; bios; dimes; fem; fps; gee; gins; ibex; ilk; imps; jibes; lees; libs; mics; mimes; nibs; plies; reg; revs; secs; sines; sues; tel; tines; vise; weds; wets; wiles; zen; Aves; DPs; DVS; ESN; HDS; IOU; IPSA; IRQ; LGS; Nev; TEF; Wed; Wiles; bps; dibs; dines; feds; fifes; gens; hems; hep; hew; idem; isms; jibs; leis; mew; mews; mien; mikes; mires; pics; pres; refs; rimes; sews; shies; sips; sis; yews; yips; zips; BKS; EEO; FIDS; Feds; IKEA; IOUs; Ikey; Leos; PMs; TESL; aves; ayes; bibs; bides; dews; dims; ekes; eves; exes; fas; fibs; fie; hews; idles; inst; irks; meds; mids; neg; nips; nits; nus; obs; pries; reis; rids; rues; sos; vex; vises; yeas; ODs; Tues; debs; dices; ems; gibes; irk; kea; lits; lyes; regs; rems; rices; riles; rives; roes; sibs; sirs; sties; yep; CBS; CEO; DJs; FEMS; HMS; ICC; ICSH; IP; ITV; LDS; Leo; MPs; Ned; OKs; PS; USS; awes; biers; bines; gees; kips; leas; nixes; née; ohs; ryes; sics; wises; zits; Hts; OEMS; REMs; Zens; dins; ivies; keas; miens; pixes; tikes; yens; yikes; yins; 's; 3Ds; AAS; AAs; ABES; ABS; ADS; AE; AEA; AEB; AED; AEE; AEI; AEJ; AEK; AEL; AEM; AEN; AEO; AEP; AEQ; AER; AESA; AEST; AESV; AET; AEU; AEV; AEW; AEX; AEZ; AFS; AGs; AIBS; AIE; AIEA; AIEQ; AIS; AIWS; AIs; AJS; AKS; ALS; AMS; ANS; AOS; APs; AQS; AS; ASS; ATS; AUS; AVS; AVs; AWS; AXS; AYS; AZS; Abs; As; Aus; BAES; BAS; BCS; BE; BEA; BEB; BEC; BECS; BED; BEE; BEF; BEH; BEI; BEK; BEM; BEO; BEP; BEQ; BER; BEST; BET; BEU; BEV; BEVs; BEW; BEX; BEd; BFS; BFs; BGS; BHS; BICs; BIE; BIS; BJS; BJs; BLS; BNS; BOS; BPS; BS; BSES; BSS; BTS; BVS; BWS; BXS; BYS; BZS; Be; BeV; Bias; Bries; Bs; CAES; CAS; CCs; CDS; CE; CEB; CEC; CED; CEE; CEF; CEG; CEI; CEJ; CEL; CEM; CEMS; CEN; CEOs; CEPS; CEQ; CER; CESC; CESD; CESE; CESI; CESR; CESS; CEST; CET; CEU; CEV; CHS; CICS; CIED; CIEF; CIEM; CIEP; CIFS; CIGS; CIOs; CIRES; CIS; CISes; CIUS; CJS; CKS; CKs; CMS; CPS; CQS; CRS; CS; CTs; CVs; CZS; Ce; Cos; Cs; DBS; DCS; DE; DEA; DEB; DECs; DEG; DEI; DEL; DEM; DEP; DEQ; DESE; DET; DEU; DEW; DEX; DFS; DGS; DHS; DIVS; DJS; DMs; DOS; DPS; DRS; DS; DUS; De; Dem; Dems; Den; Deus; Dis; Dives; Ds; E; EAS; EB; EBS; EC; ECS; EDS; EE; EED; EEE; EEG; EEK; EEM; EEP; EER; EFS; EG; EGS; EHS; EI; EIE; EIS; EK; EL; ELS; EM; EN; ENS; EO; EOS; EP; EPS; EQ; EQS; EQs; ER; ES5; ES6; ESF; ESG; ESH; ESI; ESM; EST; ESV; ESY; ET; ETS; EUS; EV; EVS; EVs; EW; EWS; EX; EXS; EY; EZ; EZS; Ea; Ed; El; Eos; Er; Eries; Esc; Esd; Esk; Et; Ewes; Ex; Ez; FAS; FCs; FDES; FDS; FEB; FEC; FED; FEF; FEI; FEM; FEN; FENS; FEP; FER; FET; FEVS; FFS; FHS; FIE; FIPS; FIS; FLS; FMS; FMs; FNS; FOS; FPS; FPs; FS; FSS; FTEs; Fe; Fed; Fen; Fides; GAS; GBS; GCS; GCs; GE; GEA; GEH; GEI; GEM; GEQ; GET; GEV; GFS; GGS; GHS; GIE; GIEC; GIFs; GIS; GIs; GMES; GMS; GNS; GS; GTS; Ge; GeV; Gen; Ger; Gers; Gs; H&amp;S; HBS; HCS; HCs; HE; HEB; HEC; HEF; HEL; HEO; HER; HEV; HEW; HJS; HLS; HNS; HPS; HS; HTS; HWs; Heb; Hel; Hey; Hos; Hs; I10; I11; I12; I15; I16; I19; I20; I21; I22; I24; I25; I26; I27; I29; I30; I35; I37; I39; I40; I42; I43; I44; I45; I49; I53; I64; I65; I66; I68; I69; I70; I71; I72; I73; I74; I77; I78; I79; I80; I81; I82; I83; I84; I85; I86; I87; I88; I89; I95; I97; I99; IA; IA4; IA8; IAD; IAE; IAF; IAG; IAH; IAI; IAM; IAN; IAO; IASB; IASI; IAT; IAV; IB; IB1; IBA; IBB; IBC; IBD; IBE; IBL; IBO; IBR; IC; ICA; ICB; ICD; ICE; ICF; ICH; ICI; ICTs; ICUs; ID3; IDA; IDE; IDH; IDK; IDM; IDMS; IDN; IDP; IDPs; IDQ; IDR; IDSL; IDT; IDed; IEAG; IECA; IELTS; IEMN; IEOM; IESAV; IESEG; IETA; IETF; IF; IFAS; IFD; IFF; IFI; IFM; IFN; IFO; IFSA; IFSC; IFSI; IFU; IGAS; IGC; IGE; IGF; IGH; IGI; IGM; IGN; IGP; IGST; IGY; IHD; IHP; IHSI; IHSS; IHT; IHU; II; IIA; IIC; IIF; III; IIM; IIN; IJ; IJF; IJM; IKB; IL; IL2; ILA; ILC; ILG; ILM; ILN; ILO; ILP; IM; IMB; IMD; IME; IMEI; IMH; IMK; IMN; IMP; IMV; IN; INA; INB; INBS; INC; IND; INE; INED; INEI; INF; ING; INH; INM; INP; INR; INRS; INSA; INSP; INSU; INT; INVS; IOB; IOF; IOI; ION; IOP; IOPS; IOR; IOT; IOV; IPAs; IPB; IPD; IPE; IPER; IPEV; IPF; IPG; IPJ; IPM; IPNS; IPT; IPY; IQR; IR; IRAS; IRB; IRC; IRD; IRDES; IRE; IREC; IREM; IRG; IRI; IRIS; IRM; IRN; IRO; IRP; IRR; IRSN; IRT; IRU; ISA; ISAS; ISB; ISC; ISD; ISEG; ISEN; ISEP; ISF; ISG; ISI; ISIS; ISK; ISL; ISM; ISN; ISO; ISOs; ISPS; ISPs; ISR; IST; ISU; ISV; IT; ITA; ITAs; ITB; ITIS; ITK; ITL; ITO; ITP; ITSM; IU; IUEM; IUF; IV; IVD; IVF; IVG; IVI; IVR; IWC; IWF; IWW; IX; IXC; IXL; IXV; IZ; IaaS; Ian; Iasi; Ibo; Ibos; Ice; Icel; Ida; Ide; Iden; Ido; Ike; Ikea; Iker; Ila; Ill; Imp; In; Inc; Innes; Io; IoT; Ir; Ira; Isa; Ito; Ive; Iver; Ivey; Ivies; Ivo; Ivy; JBS; JE; JED; JEF; JET; JEV; JHS; JIRS; JLS; JS; JWS; Jas; Jeb; Jem; Jer; Joes; Jos; KDS; KE; KEA; KED; KEF; KEM; KEN; KER; KET; KHS; KIAS; KISS; KKS; KMS; KOS; KS; KTS; KWS; Kee; Ken; Keos; Key; LE; LEA; LEB; LEC; LEF; LEJ; LEM; LEMs; LEP; LER; LESZ; LEV; LHS; LIPS; LMS; LPS; LS; LSS; LVS; Le; Ley; Lias; Lie; Liss; Léa; Léo; MAS; MCS; MDES; MDs; ME; MEA; MEB; MEC; MED; MEF; MEG; MEL; MEN; MEP; MEPs; MER; MERS; MET; MEd; MFS; MGS; MIE; MIS; MKS; MLS; MOS; MPS; MRS; MS; MSS; MUS; MWS; Med; Mee; Mei; Mets; Mew; Mines; Ms; NAS; NCS; NDS; NE; NED; NEE; NEH; NEM; NEN; NER; NET; NGS; NOS; NRS; NS; NSS; NTS; NUS; NYS; Ne; Neh; Neo; Ness; Nest; New; Nips; Nîmes; OBS; ODS; OEA; OEB; OEC; OED; OEMs; OEO; OEP; OFS; OGs; OICS; OMS; ONS; OPS; ORS; OS; OSS; OSes; OVS; OWS; Ops; Os; PAES; PAS; PAs; PBS; PCS; PE; PEA; PEB; PEC; PED; PEE; PEF; PEI; PEK; PEL; PEM; PEN; PENS; PEP; PEPS; PER; PESC; PEV; PFS; PGS; PHS; PIDs; PIE; PIGS; PIS; PKS; PLS; POS; PPEs; PPS; PRs; PUS; Peg; Pen; Pet; Pigs; Pines; Pus; QBs; QE2; QEF; QEV; RAS; RBS; RE; REA; REC; RED; REG; REI; REL; REP; RER; RERS; RESF; RET; REV; REX; RFS; RGS; RHS; RIE; RIS; RLS; RNS; ROS; RPS; RRS; RS; RTs; Re; Rea; Red; Reds; Reg; Rise; Rs; Rus; Ríos; S; SE; SEA; SEAS; SEB; SEC; SED; SEF; SEG; SEJ; SEK; SEL; SEM; SEO; SEP; SEPs; SER; SESA; SET; SEU; SEV; SEX; SEY; SEZ; SFS; SGS; SHS; SIMs; SIS; SITS; SMEs; SNS; SOEs; SPS; SQS; SS; SSS; STS; SUS; Se; Sep; Set; Sieg; T&amp;S; TAS; TBS; TDS; TEB; TEC; TECS; TED; TEE; TEI; TEL; TEM; TEP; TEQ; TER; TESS; TEU; TEUs; TEV; TGS; THS; TIS; TJS; TKS; TMS; TNS; TOS; TPS; TQS; TRS; TS; TTS; TTs; TVS; TWEs; TWS; TZS; Te; Tees; Tet; Tets; Tex; Thies; ToS; UAS; UBS; UCS; UDS; UEC; UED; UEM; UER; UESL; UET; UFS; UGS; UIDs; UIs; UMS; UOS; URS; US; USES; UUS; UVs; Urs; Utes; V6s; V8s; VBS; VCs; VE; VEI; VESA; VFS; VGS; VHS; VMs; VPS; VPs; VRS; VS; VSS; VVS; VWs; Ven; WBS; WCS; WDS; WEC; WEG; WEP; WET; WGS; WHS; WITS; WMS; WNS; WPS; WSS; WVS; Wen; Wis; XEU; XMS; XPS; XS; XSS; YBS; YEC; YEM; YHS; Yee; ZED; ZEE; ZEF; ZEP; ZESN; ZFS; Zs; ans; ares; ass; ates; axs; bey; biles; bis; bises; bries; bys; cigs; cines; cis; cms; cos; cps; cts; deb; def; del; dels; dep; deps; der; det; dev; devs; dis; dms; dos; e; eV; ed; em; en; er; est; esu; fems; fey; fez; fices; geo; geos; gey; gits; gîtes; heh; heps; hie; hied; hoes; hos; hrs; i; ii; iii; ilea; ilex; ilks; inc; isl; ism; iv; ix; j's; jives; js; kas; ken; kens; kibes; kier; kiers; kifs; kines; kins; l's; lea; lee; lei; lex; ley; leys; lief; liefs; lier; liers; lieus; ls; mas; meh; mis; mus; n's; negs; nils; nos; ns; né; oiks; oxes; ozs; pHs; pcs; pe; pec; pecs; pee; pees; peps; pgs; pis; piss; pisés; pliés; pls; pms; re; req; rets; rev; s; sen; sens; sex; sices; sises; ss; tins; tis; tits; veg; vegs; vids; vier; vims; vis; wees; wides; xis; ye; yea; yeps; yer; yest; yew; yrs; z's; zed; zeds; zines; zs; I2P; INI; XLS; diss</t>
+          <t>Add a section that describes the company's data retention policy, including how long personal data is kept and how it is disposed of.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Missing information</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Don’t put a space before the full stop.</t>
+          <t>The document is missing the policy number and the effective date of the policy.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Positions 1001-1003</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Add the policy number and effective date to the document.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Incorrect terminology</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
+          <t>The document uses the term 'E-recording fee' which may not be a standard term in all jurisdictions.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Positions 1361-1365</t>
+          <t>Multiple locations</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Verify the correct terminology for the jurisdiction and update the document accordingly.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Unrealistic coverage amounts</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Possible spelling mistake found.</t>
+          <t>The document mentions a transfer tax of $2.25/$1,000 which may not be a standard rate.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Positions 1673-1683</t>
+          <t>Nebraska section</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KS-FT-FCM</t>
+          <t>Verify the correct transfer tax rate for Nebraska and update the document accordingly.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Spelling/grammar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>This sentence does not start with an uppercase letter.</t>
+          <t>The document has multiple instances of repetitive text, such as the margin requirements.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Positions 0-6</t>
+          <t>Multiple locations</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>Consider reorganizing the document to reduce repetition and improve clarity.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Name/date inconsistencies</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Consider removing “of” to be more concise</t>
+          <t>The document has multiple effective dates mentioned, including '04.13.23' and '11.10.21'.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Positions 508-518</t>
+          <t>Top and bottom of the document</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>all the</t>
+          <t>Verify the correct effective date and update the document to reflect a single, consistent date.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ALTA_report</t>
+          <t>ID ALTA_report</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Spelling/Grammar</t>
+          <t>Invalid policy numbers</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Use a comma before “and” if it connects two independent clauses (unless they are closely connected and short).</t>
+          <t>The document does not mention a policy number at all.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Positions 767-771</t>
+          <t>Entire document</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>, and</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Three successive sentences begin with the same word. Consider rewording the sentence or use a thesaurus to find a synonym.</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Positions 944-952</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Check spelling/grammar</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>This sentence does not start with an uppercase letter.</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Positions 1940-1947</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Acquire</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Positions 1972-1980</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>mortgage</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Positions 2924-2926</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Positions 3284-3288</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Positions 3596-3606</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>KS-FT-FCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Consider removing “of” to be more concise</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Positions 3731-3741</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>all the</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Positions 3948-3950</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Positions 133-135</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>This phrase is redundant. Consider using “subject” to avoid wordiness.</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Positions 780-794</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>This phrase is redundant. Consider using “subject” to avoid wordiness.</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Positions 969-983</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>The Latin adjective/adverb “pro FORMA” is spelled as two words.</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Positions 1760-1769</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>PRO FORMA</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>The Latin adjective/adverb “pro forma” is spelled as two words.</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Positions 1842-1851</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>pro forma</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>The Latin adjective/adverb “pro forma” is spelled as two words.</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Positions 1917-1926</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>pro forma</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>The Latin adjective/adverb “pro forma” is spelled as two words.</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Positions 1992-2001</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>pro forma</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Positions 2146-2156</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>conditions</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>This sentence does not start with an uppercase letter.</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Positions 0-9</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Following</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Consider using “email”.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Positions 657-673</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Use a comma before “or” if it connects two independent clauses (unless they are closely connected and short).</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Positions 718-721</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>, or</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Positions 1438-1448</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>KS-FT-FCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Some style guides suggest that commas should set off the year in a month-day-year date.</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Positions 1537-1541</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2023,</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Positions 1636-1639</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>FNC; NFF; SNF; ANF; BNF; CNF; DNF; ENF; F&amp;F; FAF; FBF; FDF; FEF; FF; FFF; FFN; FGF; FIF; FN; FNA; FNB; FNE; FNG; FNL; FNMF; FNO; FNPF; FNQ; FNR; FNS; FNT; FNaF; FOF; FPF; FRF; FSF; FTF; FVF; GNF; HNF; INF; NF; ONF; PNF; RNF; TNF; UNF; FN F</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Don’t put a space after the opening parenthesis.</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Positions 2258-2260</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Don’t put a space after the opening parenthesis.</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Positions 2336-2338</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Don’t put a space after the opening parenthesis.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Positions 2406-2408</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Don’t put a space after the opening parenthesis.</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Positions 2528-2530</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Positions 4032-4034</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>This sentence does not start with an uppercase letter.</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Positions 0-3</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>You</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Positions 214-216</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Consider shortening this phrase to just ‘whether’, unless you mean ‘regardless of whether’.</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Positions 650-664</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Positions 820-822</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Positions 965-967</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>A comma may be missing after the conjunctive/linking adverb ‘Currently’.</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Positions 968-977</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Currently,</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Positions 1136-1146</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>KS-FT-FCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the full stop.</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Positions 1191-1193</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Unpaired symbol: ‘'’ seems to be missing</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Positions 1680-1681</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Check spelling/grammar</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Unpaired symbol: ‘'’ seems to be missing</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Positions 1693-1694</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Check spelling/grammar</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Don’t put a space after the opening parenthesis.</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Positions 499-501</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Don’t put a space before the closing parenthesis.</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Positions 545-547</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Three successive sentences begin with the same word. Consider rewording the sentence or use a thesaurus to find a synonym.</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Positions 572-575</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Check spelling/grammar</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Positions 1477-1487</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>KS-FT-FCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>This phrase is redundant. Consider using “outside”.</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Positions 2519-2529</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>outside</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Only proper nouns start with an uppercase character (there are exceptions for headlines).</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Positions 3163-3172</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>disclosed</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>This sentence does not start with an uppercase letter.</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Positions 0-2</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Of</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Positions 857-861</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>ATN; ATT; Aten; Aton; Attu</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>‘21 Page’ is missing a hyphen.</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Positions 967-974</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>21-Page</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Possible spelling mistake found.</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Positions 978-988</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>KS-FT-FCM</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ALTA_report</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Spelling/Grammar</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Did you mean “1st”?</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Positions 3133-3137</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>1st</t>
+          <t>Add a valid policy number to the document.</t>
         </is>
       </c>
     </row>
